--- a/data/pca/factorExposure/factorExposure_2018-09-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03654893539294045</v>
+        <v>-0.02961906757384785</v>
       </c>
       <c r="C2">
-        <v>0.04725429972580091</v>
+        <v>-0.01311098662304152</v>
       </c>
       <c r="D2">
-        <v>0.03662597775063869</v>
+        <v>-0.009875263042100383</v>
       </c>
       <c r="E2">
-        <v>0.05331372555961494</v>
+        <v>0.01405237377468833</v>
       </c>
       <c r="F2">
-        <v>-0.1445333665307612</v>
+        <v>0.02302011051519856</v>
       </c>
       <c r="G2">
-        <v>-0.06052313296374759</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08163158653443732</v>
+      </c>
+      <c r="H2">
+        <v>0.01507721734937153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1188277261389695</v>
+        <v>-0.07695159456788891</v>
       </c>
       <c r="C3">
-        <v>0.004760390068719886</v>
+        <v>0.01840061508265965</v>
       </c>
       <c r="D3">
-        <v>0.04306898571460475</v>
+        <v>-0.01916053008211465</v>
       </c>
       <c r="E3">
-        <v>0.1005858841073708</v>
+        <v>0.007781479994276134</v>
       </c>
       <c r="F3">
-        <v>-0.3931809164770277</v>
+        <v>-0.01303058829965476</v>
       </c>
       <c r="G3">
-        <v>-0.1642246750630061</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2713829463354932</v>
+      </c>
+      <c r="H3">
+        <v>0.03896595921531161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05150715879707125</v>
+        <v>-0.04723061044083629</v>
       </c>
       <c r="C4">
-        <v>0.03637317230564269</v>
+        <v>-0.0003310615207780112</v>
       </c>
       <c r="D4">
-        <v>-0.002918953655695433</v>
+        <v>-0.02915339340765662</v>
       </c>
       <c r="E4">
-        <v>0.07252169424673052</v>
+        <v>-0.0209243469452258</v>
       </c>
       <c r="F4">
-        <v>-0.0675532100716074</v>
+        <v>0.05954452440846674</v>
       </c>
       <c r="G4">
-        <v>-0.04796850789940316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04771282871820151</v>
+      </c>
+      <c r="H4">
+        <v>0.02620675852627489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01175077473287321</v>
+        <v>-0.02956174681996415</v>
       </c>
       <c r="C6">
-        <v>-0.0004261638643761889</v>
+        <v>-0.001223034372645883</v>
       </c>
       <c r="D6">
-        <v>0.0130895762634607</v>
+        <v>-0.03564350727498732</v>
       </c>
       <c r="E6">
-        <v>0.01322139483808613</v>
+        <v>-0.005380210923997856</v>
       </c>
       <c r="F6">
-        <v>-0.01213837895960822</v>
+        <v>0.03685340361219453</v>
       </c>
       <c r="G6">
-        <v>0.003389233676563979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01399763010033941</v>
+      </c>
+      <c r="H6">
+        <v>0.05207689138696208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02822528907592103</v>
+        <v>-0.02070699956011559</v>
       </c>
       <c r="C7">
-        <v>0.02086905881510816</v>
+        <v>-0.0009456294893750391</v>
       </c>
       <c r="D7">
-        <v>0.02963742295413182</v>
+        <v>-0.01687893419169636</v>
       </c>
       <c r="E7">
-        <v>0.04135335468302012</v>
+        <v>-0.03582915959851461</v>
       </c>
       <c r="F7">
-        <v>-0.06077717412767362</v>
+        <v>0.02483121483655239</v>
       </c>
       <c r="G7">
-        <v>-0.05947599708537395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03705043225592329</v>
+      </c>
+      <c r="H7">
+        <v>0.01316819992511171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01472523322105572</v>
+        <v>-0.003651350030073416</v>
       </c>
       <c r="C8">
-        <v>0.01303965808416206</v>
+        <v>0.001770394253715612</v>
       </c>
       <c r="D8">
-        <v>-0.004347423618117472</v>
+        <v>-0.008402154003371857</v>
       </c>
       <c r="E8">
-        <v>0.07505348246715654</v>
+        <v>-0.01214276907169304</v>
       </c>
       <c r="F8">
-        <v>-0.08014426550196325</v>
+        <v>0.02627502743376134</v>
       </c>
       <c r="G8">
-        <v>-0.06665561404947697</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05421774624668035</v>
+      </c>
+      <c r="H8">
+        <v>0.006049637620908066</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04339277934278014</v>
+        <v>-0.03802710945428993</v>
       </c>
       <c r="C9">
-        <v>0.03167223628929406</v>
+        <v>0.003209709993915587</v>
       </c>
       <c r="D9">
-        <v>-0.01471693258316528</v>
+        <v>-0.02396013099917289</v>
       </c>
       <c r="E9">
-        <v>0.0698743338864288</v>
+        <v>-0.01849025840543196</v>
       </c>
       <c r="F9">
-        <v>-0.06655483889287661</v>
+        <v>0.03794420152221386</v>
       </c>
       <c r="G9">
-        <v>-0.04885718820875831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.05969391691750435</v>
+      </c>
+      <c r="H9">
+        <v>0.0245330311287173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05591578916824966</v>
+        <v>-0.09210474328527744</v>
       </c>
       <c r="C10">
-        <v>0.04348376741103652</v>
+        <v>0.04026452080820037</v>
       </c>
       <c r="D10">
-        <v>-0.01170676402421723</v>
+        <v>0.1432181575590257</v>
       </c>
       <c r="E10">
-        <v>-0.1060540944523471</v>
+        <v>0.01914224494158236</v>
       </c>
       <c r="F10">
-        <v>-0.07630830218177907</v>
+        <v>-0.07876694099281215</v>
       </c>
       <c r="G10">
-        <v>0.04299850048899749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02642292352511228</v>
+      </c>
+      <c r="H10">
+        <v>0.004234196542578807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03404140584430183</v>
+        <v>-0.02248818238596512</v>
       </c>
       <c r="C11">
-        <v>0.01228854244803622</v>
+        <v>0.01018573452114801</v>
       </c>
       <c r="D11">
-        <v>0.01575562166692045</v>
+        <v>-0.03217679528644754</v>
       </c>
       <c r="E11">
-        <v>0.03657414182028667</v>
+        <v>0.003640154407383857</v>
       </c>
       <c r="F11">
-        <v>-0.03144033458735453</v>
+        <v>0.02372856948157559</v>
       </c>
       <c r="G11">
-        <v>-0.02583811288607845</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.0349853684556832</v>
+      </c>
+      <c r="H11">
+        <v>0.02658334215726824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04095210573400745</v>
+        <v>-0.03155965967785846</v>
       </c>
       <c r="C12">
-        <v>0.01353305199569402</v>
+        <v>0.00940271703483918</v>
       </c>
       <c r="D12">
-        <v>0.002335404174803545</v>
+        <v>-0.03100400746441943</v>
       </c>
       <c r="E12">
-        <v>0.04439167294010391</v>
+        <v>-0.007231275458501019</v>
       </c>
       <c r="F12">
-        <v>-0.01408875919608343</v>
+        <v>0.02690238525610114</v>
       </c>
       <c r="G12">
-        <v>-0.01865247687063049</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01250383524486145</v>
+      </c>
+      <c r="H12">
+        <v>0.0135944321402125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01925897579925004</v>
+        <v>-0.02526728985614383</v>
       </c>
       <c r="C13">
-        <v>0.02386569161497883</v>
+        <v>-0.01165199214617514</v>
       </c>
       <c r="D13">
-        <v>0.03447837376466313</v>
+        <v>-0.002456530420413066</v>
       </c>
       <c r="E13">
-        <v>0.02313928619391746</v>
+        <v>0.01632052151740897</v>
       </c>
       <c r="F13">
-        <v>-0.08850068527980601</v>
+        <v>0.02120287839213009</v>
       </c>
       <c r="G13">
-        <v>-0.03765997678777777</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06617023213603315</v>
+      </c>
+      <c r="H13">
+        <v>0.02399639255935275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01120714644096116</v>
+        <v>-0.01564498982783443</v>
       </c>
       <c r="C14">
-        <v>0.02172793471125136</v>
+        <v>0.001204923796434784</v>
       </c>
       <c r="D14">
-        <v>0.003041995152852699</v>
+        <v>-0.0009697459334920035</v>
       </c>
       <c r="E14">
-        <v>0.04112879407329469</v>
+        <v>-0.00851143291860312</v>
       </c>
       <c r="F14">
-        <v>-0.06253376782196073</v>
+        <v>0.02588314555540318</v>
       </c>
       <c r="G14">
-        <v>-0.0642433309851924</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04463116909196924</v>
+      </c>
+      <c r="H14">
+        <v>-0.02014414721371408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02587082325668476</v>
+        <v>-0.02334894980291584</v>
       </c>
       <c r="C16">
-        <v>0.01370796120906727</v>
+        <v>0.01063385129680547</v>
       </c>
       <c r="D16">
-        <v>0.01298287547589691</v>
+        <v>-0.02753735325717518</v>
       </c>
       <c r="E16">
-        <v>0.03476985077895889</v>
+        <v>-0.00113785424490419</v>
       </c>
       <c r="F16">
-        <v>-0.0346314937253667</v>
+        <v>0.02491115133986983</v>
       </c>
       <c r="G16">
-        <v>-0.02719121560651982</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.03037135762047018</v>
+      </c>
+      <c r="H16">
+        <v>0.02070657160129436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03828048741415803</v>
+        <v>-0.03364462481709177</v>
       </c>
       <c r="C19">
-        <v>0.01366295310174102</v>
+        <v>0.003240859577032609</v>
       </c>
       <c r="D19">
-        <v>0.0187002083859962</v>
+        <v>-0.01070722974031676</v>
       </c>
       <c r="E19">
-        <v>0.05463445939800273</v>
+        <v>0.001496522048708644</v>
       </c>
       <c r="F19">
-        <v>-0.09322184365639406</v>
+        <v>0.03190907761533916</v>
       </c>
       <c r="G19">
-        <v>-0.04642171459411595</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.06992218541973397</v>
+      </c>
+      <c r="H19">
+        <v>0.03699100013923252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003401786345986903</v>
+        <v>-0.006519311779944224</v>
       </c>
       <c r="C20">
-        <v>0.02208393989202252</v>
+        <v>-0.007072920301353664</v>
       </c>
       <c r="D20">
-        <v>0.008363930192528565</v>
+        <v>-0.002426338651180324</v>
       </c>
       <c r="E20">
-        <v>0.03554351501206313</v>
+        <v>-0.001508987160410486</v>
       </c>
       <c r="F20">
-        <v>-0.05951309483521098</v>
+        <v>0.01812274336336099</v>
       </c>
       <c r="G20">
-        <v>-0.0664317225101799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04982087800977222</v>
+      </c>
+      <c r="H20">
+        <v>-0.01030579107645289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0009674312312366664</v>
+        <v>-0.02194596289674751</v>
       </c>
       <c r="C21">
-        <v>-0.001301591644491001</v>
+        <v>-0.004189051662815727</v>
       </c>
       <c r="D21">
-        <v>0.00409042989832593</v>
+        <v>-0.002622746189987766</v>
       </c>
       <c r="E21">
-        <v>0.03794554983734408</v>
+        <v>-0.01311001604315131</v>
       </c>
       <c r="F21">
-        <v>-0.06972147018728012</v>
+        <v>0.008841577957237225</v>
       </c>
       <c r="G21">
-        <v>-0.03367224132599158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05469921170716294</v>
+      </c>
+      <c r="H21">
+        <v>0.005709862126423495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02925427022943318</v>
+        <v>-0.02210438058238981</v>
       </c>
       <c r="C24">
-        <v>0.01381385776163581</v>
+        <v>0.005124377343428222</v>
       </c>
       <c r="D24">
-        <v>0.009749402497959735</v>
+        <v>-0.02817628587604223</v>
       </c>
       <c r="E24">
-        <v>0.02808711304512302</v>
+        <v>-0.001128453463164787</v>
       </c>
       <c r="F24">
-        <v>-0.03252475253573176</v>
+        <v>0.0208074503017879</v>
       </c>
       <c r="G24">
-        <v>-0.01942896457597319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02914164518537557</v>
+      </c>
+      <c r="H24">
+        <v>0.02630845152506417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03267007398874845</v>
+        <v>-0.03335317024245085</v>
       </c>
       <c r="C25">
-        <v>0.01119472525239153</v>
+        <v>0.004810100396387923</v>
       </c>
       <c r="D25">
-        <v>0.007383997280275035</v>
+        <v>-0.02375542029870347</v>
       </c>
       <c r="E25">
-        <v>0.03654133892534553</v>
+        <v>-0.001666129425248628</v>
       </c>
       <c r="F25">
-        <v>-0.03201189228281085</v>
+        <v>0.02507755675888115</v>
       </c>
       <c r="G25">
-        <v>-0.00801854743478754</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03278154038179837</v>
+      </c>
+      <c r="H25">
+        <v>0.02834006537755715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0197300474462423</v>
+        <v>-0.01947111067112499</v>
       </c>
       <c r="C26">
-        <v>-7.561476445158972e-05</v>
+        <v>-0.01615626176230977</v>
       </c>
       <c r="D26">
-        <v>0.03589803807520114</v>
+        <v>-0.003261772284664263</v>
       </c>
       <c r="E26">
-        <v>0.04513102204431347</v>
+        <v>0.006136759250439563</v>
       </c>
       <c r="F26">
-        <v>-0.0537249535863737</v>
+        <v>0.005742045260909301</v>
       </c>
       <c r="G26">
-        <v>-0.03212339062378168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03780115568857592</v>
+      </c>
+      <c r="H26">
+        <v>-0.003673775862022934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07505032227463558</v>
+        <v>-0.03193312333737863</v>
       </c>
       <c r="C27">
-        <v>0.05036178318797012</v>
+        <v>0.01536410192740746</v>
       </c>
       <c r="D27">
-        <v>0.0002392981698128785</v>
+        <v>-0.009658933270850795</v>
       </c>
       <c r="E27">
-        <v>0.05982168501257016</v>
+        <v>-0.004024148227967793</v>
       </c>
       <c r="F27">
-        <v>-0.05105598372801949</v>
+        <v>0.02734154003147227</v>
       </c>
       <c r="G27">
-        <v>-0.05665973276932112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02781427392988315</v>
+      </c>
+      <c r="H27">
+        <v>-0.002017975712121109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08160504076708987</v>
+        <v>-0.1417202763457444</v>
       </c>
       <c r="C28">
-        <v>0.06100960708159354</v>
+        <v>0.04796185953993712</v>
       </c>
       <c r="D28">
-        <v>-0.03163266567034743</v>
+        <v>0.213346018212235</v>
       </c>
       <c r="E28">
-        <v>-0.1724823043171703</v>
+        <v>0.02387803144659601</v>
       </c>
       <c r="F28">
-        <v>-0.09759813589925645</v>
+        <v>-0.1071891004358108</v>
       </c>
       <c r="G28">
-        <v>0.02590105522285868</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01240005674814435</v>
+      </c>
+      <c r="H28">
+        <v>-0.009711405923646959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01680481970919522</v>
+        <v>-0.01958495748939819</v>
       </c>
       <c r="C29">
-        <v>0.02445704426374046</v>
+        <v>0.003423718132216906</v>
       </c>
       <c r="D29">
-        <v>-0.006559377399089499</v>
+        <v>-0.002522599369885908</v>
       </c>
       <c r="E29">
-        <v>0.05934396005805929</v>
+        <v>-0.01090212520474295</v>
       </c>
       <c r="F29">
-        <v>-0.04134716329568976</v>
+        <v>0.02876616374726972</v>
       </c>
       <c r="G29">
-        <v>-0.06342052968444159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03616814556403315</v>
+      </c>
+      <c r="H29">
+        <v>-0.0208329687543953</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08712350165890621</v>
+        <v>-0.05452913766040132</v>
       </c>
       <c r="C30">
-        <v>0.05610542865657613</v>
+        <v>0.0009121272734165534</v>
       </c>
       <c r="D30">
-        <v>0.03662282384014844</v>
+        <v>-0.05440865149702004</v>
       </c>
       <c r="E30">
-        <v>0.08928090268705197</v>
+        <v>0.0355397705260752</v>
       </c>
       <c r="F30">
-        <v>-0.04630279249525408</v>
+        <v>0.07645689337485165</v>
       </c>
       <c r="G30">
-        <v>-0.0476138627259423</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06344005671711218</v>
+      </c>
+      <c r="H30">
+        <v>0.03597638307085126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06015750782200664</v>
+        <v>-0.05374225988899826</v>
       </c>
       <c r="C31">
-        <v>0.01643511404303845</v>
+        <v>0.0190996999631262</v>
       </c>
       <c r="D31">
-        <v>0.04902540705782424</v>
+        <v>-0.0247545975066452</v>
       </c>
       <c r="E31">
-        <v>0.03981200105521993</v>
+        <v>0.009853290444659912</v>
       </c>
       <c r="F31">
-        <v>-0.03054932259999111</v>
+        <v>0.02215051888350287</v>
       </c>
       <c r="G31">
-        <v>-0.07935595648449469</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02401502217790184</v>
+      </c>
+      <c r="H31">
+        <v>-0.0170784895885445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02015627911278245</v>
+        <v>-0.01170483779741067</v>
       </c>
       <c r="C32">
-        <v>0.0235775145665719</v>
+        <v>0.01631332965173472</v>
       </c>
       <c r="D32">
-        <v>-6.410641661724996e-05</v>
+        <v>0.007363593914920072</v>
       </c>
       <c r="E32">
-        <v>0.07157472776126941</v>
+        <v>-0.01793731554965121</v>
       </c>
       <c r="F32">
-        <v>-0.058559071580736</v>
+        <v>0.04298686577019195</v>
       </c>
       <c r="G32">
-        <v>-0.05394601587465725</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05240977453554357</v>
+      </c>
+      <c r="H32">
+        <v>0.04153155566942908</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05321628972524186</v>
+        <v>-0.03806064948805296</v>
       </c>
       <c r="C33">
-        <v>0.002909788599579525</v>
+        <v>0.003235351360283136</v>
       </c>
       <c r="D33">
-        <v>0.0454608921555414</v>
+        <v>-0.03133906285695404</v>
       </c>
       <c r="E33">
-        <v>0.07693953972369535</v>
+        <v>0.02311731142686318</v>
       </c>
       <c r="F33">
-        <v>-0.08493330999604508</v>
+        <v>0.01550997511345678</v>
       </c>
       <c r="G33">
-        <v>-0.05345548453350596</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06236383390194392</v>
+      </c>
+      <c r="H33">
+        <v>0.01495957666832626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03099399355053117</v>
+        <v>-0.02608342787032026</v>
       </c>
       <c r="C34">
-        <v>0.01737733855339081</v>
+        <v>0.01904658370562095</v>
       </c>
       <c r="D34">
-        <v>0.01198888225953139</v>
+        <v>-0.02799145211531142</v>
       </c>
       <c r="E34">
-        <v>0.04257280629274682</v>
+        <v>-0.005631910268411378</v>
       </c>
       <c r="F34">
-        <v>-0.03680659658804856</v>
+        <v>0.02619703079818596</v>
       </c>
       <c r="G34">
-        <v>-0.01831876782759654</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02762943781625581</v>
+      </c>
+      <c r="H34">
+        <v>0.02409823186741599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01336835892054784</v>
+        <v>-0.0189961893046638</v>
       </c>
       <c r="C36">
-        <v>0.01320149181964047</v>
+        <v>-0.002488461251614824</v>
       </c>
       <c r="D36">
-        <v>0.001494844867149969</v>
+        <v>0.00337791086472559</v>
       </c>
       <c r="E36">
-        <v>0.03018366317938004</v>
+        <v>-0.002787255245383413</v>
       </c>
       <c r="F36">
-        <v>-0.02199810194343214</v>
+        <v>0.008845682548116136</v>
       </c>
       <c r="G36">
-        <v>-0.03688564509692713</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01981671686210999</v>
+      </c>
+      <c r="H36">
+        <v>-0.005508033686268858</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.002690378026226378</v>
+        <v>-0.01689715388878374</v>
       </c>
       <c r="C38">
-        <v>-0.003791161928197847</v>
+        <v>0.01691368384033665</v>
       </c>
       <c r="D38">
-        <v>-0.01471091647621526</v>
+        <v>0.001629058162707916</v>
       </c>
       <c r="E38">
-        <v>-0.005365272552416794</v>
+        <v>-0.005345436290462377</v>
       </c>
       <c r="F38">
-        <v>-0.009216049491713382</v>
+        <v>0.009116795192210918</v>
       </c>
       <c r="G38">
-        <v>0.01943083410885185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02782125025636553</v>
+      </c>
+      <c r="H38">
+        <v>0.02049584580303398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03935653205288093</v>
+        <v>-0.02386483811559376</v>
       </c>
       <c r="C39">
-        <v>0.02231584612806253</v>
+        <v>0.003168439166454208</v>
       </c>
       <c r="D39">
-        <v>0.03049468386911122</v>
+        <v>-0.06513790459964532</v>
       </c>
       <c r="E39">
-        <v>0.04568494374292315</v>
+        <v>0.002051509135012007</v>
       </c>
       <c r="F39">
-        <v>-0.0427917933750728</v>
+        <v>0.0454563700355501</v>
       </c>
       <c r="G39">
-        <v>-0.02475364876469339</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05510937961615357</v>
+      </c>
+      <c r="H39">
+        <v>0.04909716399552916</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0286444809333216</v>
+        <v>-0.02710449884751403</v>
       </c>
       <c r="C40">
-        <v>0.03944563857279769</v>
+        <v>0.002032865385877575</v>
       </c>
       <c r="D40">
-        <v>0.05527090190328368</v>
+        <v>-0.02050634941962414</v>
       </c>
       <c r="E40">
-        <v>0.04008848797147123</v>
+        <v>0.01952472988886851</v>
       </c>
       <c r="F40">
-        <v>-0.08106028360527764</v>
+        <v>0.03678410375892235</v>
       </c>
       <c r="G40">
-        <v>-0.0556150876076849</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.04249787108183772</v>
+      </c>
+      <c r="H40">
+        <v>0.04360547864410749</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.002071339855091983</v>
+        <v>-0.008300529780839696</v>
       </c>
       <c r="C41">
-        <v>-0.007589810739445747</v>
+        <v>-0.0005110429542997003</v>
       </c>
       <c r="D41">
-        <v>0.006822680797224023</v>
+        <v>0.009001816774485335</v>
       </c>
       <c r="E41">
-        <v>0.02316803458274168</v>
+        <v>0.001684415843866752</v>
       </c>
       <c r="F41">
-        <v>-0.01176542559690295</v>
+        <v>-0.004143450608814449</v>
       </c>
       <c r="G41">
-        <v>-0.05727101373455111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.008613209502996672</v>
+      </c>
+      <c r="H41">
+        <v>-0.01886785071445058</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3611256641325228</v>
+        <v>-0.1949168068746836</v>
       </c>
       <c r="C42">
-        <v>-0.8916860270977475</v>
+        <v>-0.1004670234298317</v>
       </c>
       <c r="D42">
-        <v>0.1849210035940889</v>
+        <v>-0.5751022626757272</v>
       </c>
       <c r="E42">
-        <v>-0.09872942277973595</v>
+        <v>0.1212823185013504</v>
       </c>
       <c r="F42">
-        <v>0.02876495181699788</v>
+        <v>-0.7642895123642229</v>
       </c>
       <c r="G42">
-        <v>-0.01710990523774361</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.07083202912803072</v>
+      </c>
+      <c r="H42">
+        <v>0.01344496428269244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.007503533860026626</v>
+        <v>-0.006963389996369334</v>
       </c>
       <c r="C43">
-        <v>-0.003344967312942899</v>
+        <v>-0.002399097469710254</v>
       </c>
       <c r="D43">
-        <v>0.009676666844430859</v>
+        <v>0.01220378898933165</v>
       </c>
       <c r="E43">
-        <v>0.02579501305978632</v>
+        <v>0.006129741650700165</v>
       </c>
       <c r="F43">
-        <v>-0.03047766433915803</v>
+        <v>-0.009176394441438309</v>
       </c>
       <c r="G43">
-        <v>-0.05067847383406512</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01704820476704453</v>
+      </c>
+      <c r="H43">
+        <v>-0.01144760882845249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01854444682937025</v>
+        <v>-0.01309041051206201</v>
       </c>
       <c r="C44">
-        <v>0.00250057013076151</v>
+        <v>0.0006014472689338616</v>
       </c>
       <c r="D44">
-        <v>0.02397268094040188</v>
+        <v>-0.02202833304071868</v>
       </c>
       <c r="E44">
-        <v>0.07295382777551143</v>
+        <v>-0.001539624838323546</v>
       </c>
       <c r="F44">
-        <v>-0.1713446632507027</v>
+        <v>0.005843058291408107</v>
       </c>
       <c r="G44">
-        <v>-0.1639987793408067</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08841566389798282</v>
+      </c>
+      <c r="H44">
+        <v>0.01344904405446834</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0178679367361512</v>
+        <v>-0.02023726574268539</v>
       </c>
       <c r="C46">
-        <v>0.02331386867674711</v>
+        <v>-0.0003174980308563478</v>
       </c>
       <c r="D46">
-        <v>0.01924770762597062</v>
+        <v>-0.005548897379206401</v>
       </c>
       <c r="E46">
-        <v>0.0696255093491203</v>
+        <v>0.001382316051578335</v>
       </c>
       <c r="F46">
-        <v>-0.06034599628561962</v>
+        <v>0.03345601025063139</v>
       </c>
       <c r="G46">
-        <v>-0.05835208715076766</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05727985490082712</v>
+      </c>
+      <c r="H46">
+        <v>-0.01500076679880544</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09571454250702886</v>
+        <v>-0.07390387604100124</v>
       </c>
       <c r="C47">
-        <v>0.03538688574930354</v>
+        <v>0.03659406290196674</v>
       </c>
       <c r="D47">
-        <v>0.02522118844107191</v>
+        <v>-0.03028553053907665</v>
       </c>
       <c r="E47">
-        <v>0.04182107088633876</v>
+        <v>0.005627028876658646</v>
       </c>
       <c r="F47">
-        <v>0.003087694873551579</v>
+        <v>0.03288379273545083</v>
       </c>
       <c r="G47">
-        <v>-0.08770180987661012</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008930355378634744</v>
+      </c>
+      <c r="H47">
+        <v>-0.03295309653480274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01279201264438813</v>
+        <v>-0.01930013355181582</v>
       </c>
       <c r="C48">
-        <v>0.006094148007586926</v>
+        <v>0.007556215733098029</v>
       </c>
       <c r="D48">
-        <v>0.01448504104183303</v>
+        <v>-0.003845249113952177</v>
       </c>
       <c r="E48">
-        <v>0.04103714996494922</v>
+        <v>0.001832421960455457</v>
       </c>
       <c r="F48">
-        <v>-0.03821290395465629</v>
+        <v>0.01149886926453956</v>
       </c>
       <c r="G48">
-        <v>-0.02158726782924165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02715564070224048</v>
+      </c>
+      <c r="H48">
+        <v>-0.001589901120413111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08705099334467782</v>
+        <v>-0.06564847451233867</v>
       </c>
       <c r="C50">
-        <v>0.01477036160542665</v>
+        <v>0.029662519992351</v>
       </c>
       <c r="D50">
-        <v>0.03664502535238112</v>
+        <v>-0.04298964524330788</v>
       </c>
       <c r="E50">
-        <v>0.06158087922266776</v>
+        <v>-0.009559337909680972</v>
       </c>
       <c r="F50">
-        <v>-0.01895948998478512</v>
+        <v>0.02856169429578841</v>
       </c>
       <c r="G50">
-        <v>-0.04132912699526518</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02324330655511061</v>
+      </c>
+      <c r="H50">
+        <v>-0.02879364917810308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02974525638515742</v>
+        <v>-0.02212652461548288</v>
       </c>
       <c r="C51">
-        <v>0.01818593077916962</v>
+        <v>0.002561130597199627</v>
       </c>
       <c r="D51">
-        <v>0.03379652100555065</v>
+        <v>0.009088552118320952</v>
       </c>
       <c r="E51">
-        <v>0.04157762526718686</v>
+        <v>0.007216845377310668</v>
       </c>
       <c r="F51">
-        <v>-0.1232060832370513</v>
+        <v>-0.0009605189088646442</v>
       </c>
       <c r="G51">
-        <v>-0.04808490836740763</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07368776588218105</v>
+      </c>
+      <c r="H51">
+        <v>0.02191415557201251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1036730080390896</v>
+        <v>-0.09387971153416934</v>
       </c>
       <c r="C53">
-        <v>0.04923812510785968</v>
+        <v>0.04565462738071132</v>
       </c>
       <c r="D53">
-        <v>0.04213534175294149</v>
+        <v>-0.05818314752153866</v>
       </c>
       <c r="E53">
-        <v>0.04723119760080366</v>
+        <v>0.003821362691277056</v>
       </c>
       <c r="F53">
-        <v>0.05664528579471383</v>
+        <v>0.06662072173659569</v>
       </c>
       <c r="G53">
-        <v>-0.03158554466486587</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05594439777898262</v>
+      </c>
+      <c r="H53">
+        <v>-0.03648586653063366</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01865703732580743</v>
+        <v>-0.02373473568113906</v>
       </c>
       <c r="C54">
-        <v>0.03792852817900383</v>
+        <v>0.01526609906815734</v>
       </c>
       <c r="D54">
-        <v>0.001361691887628524</v>
+        <v>0.02365899519881403</v>
       </c>
       <c r="E54">
-        <v>0.03643119368959285</v>
+        <v>-0.003932289204907941</v>
       </c>
       <c r="F54">
-        <v>-0.06710706236088275</v>
+        <v>0.01261859543467625</v>
       </c>
       <c r="G54">
-        <v>-0.07137829793392594</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03851520448023619</v>
+      </c>
+      <c r="H54">
+        <v>-0.01784515515767167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1014909569072098</v>
+        <v>-0.08051264662782419</v>
       </c>
       <c r="C55">
-        <v>0.03261239892403785</v>
+        <v>0.03996379111038369</v>
       </c>
       <c r="D55">
-        <v>0.002658779185506124</v>
+        <v>-0.0589813384622966</v>
       </c>
       <c r="E55">
-        <v>0.05477074222369455</v>
+        <v>-0.008175383152490475</v>
       </c>
       <c r="F55">
-        <v>0.05209695975784346</v>
+        <v>0.05596201616668124</v>
       </c>
       <c r="G55">
-        <v>-0.06999145536810975</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03609385842207632</v>
+      </c>
+      <c r="H55">
+        <v>-0.04788647242071786</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.145928421462181</v>
+        <v>-0.1266243091300079</v>
       </c>
       <c r="C56">
-        <v>0.07889858904226153</v>
+        <v>0.06785827694608115</v>
       </c>
       <c r="D56">
-        <v>0.02709274894202845</v>
+        <v>-0.0779323590455947</v>
       </c>
       <c r="E56">
-        <v>0.06006364973374173</v>
+        <v>5.13389517319728e-05</v>
       </c>
       <c r="F56">
-        <v>0.1640918744790646</v>
+        <v>0.09384054711386799</v>
       </c>
       <c r="G56">
-        <v>-0.0005835082078651629</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1029326076855805</v>
+      </c>
+      <c r="H56">
+        <v>-0.02886437253478799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.0443682968500937</v>
+        <v>-0.04516713955353518</v>
       </c>
       <c r="C57">
-        <v>0.01061690501621309</v>
+        <v>-0.004803418036726367</v>
       </c>
       <c r="D57">
-        <v>0.03533811898076164</v>
+        <v>-0.01935917923861881</v>
       </c>
       <c r="E57">
-        <v>0.009796084898922634</v>
+        <v>0.01183765402730871</v>
       </c>
       <c r="F57">
-        <v>-0.07132026615178642</v>
+        <v>0.0239101270242061</v>
       </c>
       <c r="G57">
-        <v>-0.04058571375623561</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06274516096924251</v>
+      </c>
+      <c r="H57">
+        <v>0.01004717632327364</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1928113418903802</v>
+        <v>-0.1421611297438428</v>
       </c>
       <c r="C58">
-        <v>0.04885768847258106</v>
+        <v>0.0531525380444723</v>
       </c>
       <c r="D58">
-        <v>0.1107993166049305</v>
+        <v>-0.1263117905503504</v>
       </c>
       <c r="E58">
-        <v>0.2686150238111784</v>
+        <v>0.1146544012145955</v>
       </c>
       <c r="F58">
-        <v>-0.2200107901800925</v>
+        <v>0.06025047939263019</v>
       </c>
       <c r="G58">
-        <v>0.06532941010029955</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.6809405995737193</v>
+      </c>
+      <c r="H58">
+        <v>-0.5410571144948207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07648728722978919</v>
+        <v>-0.1434542769540271</v>
       </c>
       <c r="C59">
-        <v>0.08291026474930439</v>
+        <v>0.05495543744600329</v>
       </c>
       <c r="D59">
-        <v>-0.02080969440876271</v>
+        <v>0.2117459381811102</v>
       </c>
       <c r="E59">
-        <v>-0.14312616122192</v>
+        <v>0.04135404858376075</v>
       </c>
       <c r="F59">
-        <v>-0.09439971497716486</v>
+        <v>-0.08812806406974118</v>
       </c>
       <c r="G59">
-        <v>0.03332984029161993</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02072789862991675</v>
+      </c>
+      <c r="H59">
+        <v>0.02123736136862169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1648780044807781</v>
+        <v>-0.1668677978387138</v>
       </c>
       <c r="C60">
-        <v>0.05433818147054285</v>
+        <v>0.05219187255234046</v>
       </c>
       <c r="D60">
-        <v>0.07212786213546474</v>
+        <v>-0.01654497250076545</v>
       </c>
       <c r="E60">
-        <v>0.04498235426948106</v>
+        <v>0.05582990227527691</v>
       </c>
       <c r="F60">
-        <v>-0.1330366519663045</v>
+        <v>0.05761800962202193</v>
       </c>
       <c r="G60">
-        <v>0.3152974307645058</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1284803019085388</v>
+      </c>
+      <c r="H60">
+        <v>0.3745656692736542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02124039640625274</v>
+        <v>-0.02322019997336588</v>
       </c>
       <c r="C61">
-        <v>0.0125047133707011</v>
+        <v>0.008634336126108538</v>
       </c>
       <c r="D61">
-        <v>0.005987148792233079</v>
+        <v>-0.03402950164271857</v>
       </c>
       <c r="E61">
-        <v>0.02059830169839175</v>
+        <v>-0.002550350500648535</v>
       </c>
       <c r="F61">
-        <v>-0.02881308609487011</v>
+        <v>0.03196282371358478</v>
       </c>
       <c r="G61">
-        <v>-0.02629513280352398</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03220574460277494</v>
+      </c>
+      <c r="H61">
+        <v>0.03729896750911439</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01793421481152819</v>
+        <v>-0.01420297107971064</v>
       </c>
       <c r="C63">
-        <v>0.0170396728844044</v>
+        <v>0.0001190140255022864</v>
       </c>
       <c r="D63">
-        <v>0.01308721429036467</v>
+        <v>-0.004239412856893084</v>
       </c>
       <c r="E63">
-        <v>0.04210973464751669</v>
+        <v>-0.002135718578154752</v>
       </c>
       <c r="F63">
-        <v>-0.008702148482005843</v>
+        <v>0.0218266731229753</v>
       </c>
       <c r="G63">
-        <v>-0.0414755380154437</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01577584868134176</v>
+      </c>
+      <c r="H63">
+        <v>-0.01351663491433102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03772891770457772</v>
+        <v>-0.04044712573566992</v>
       </c>
       <c r="C64">
-        <v>0.02501748186408679</v>
+        <v>0.01393670024029814</v>
       </c>
       <c r="D64">
-        <v>-0.01896815678504975</v>
+        <v>-0.03055696579326427</v>
       </c>
       <c r="E64">
-        <v>0.0430816133713665</v>
+        <v>-0.01142274045583562</v>
       </c>
       <c r="F64">
-        <v>-0.01833297789833603</v>
+        <v>0.02681393786902625</v>
       </c>
       <c r="G64">
-        <v>-0.06876735134834747</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.01993057922407145</v>
+      </c>
+      <c r="H64">
+        <v>0.02454586405028671</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01221024896351513</v>
+        <v>-0.03513764148063256</v>
       </c>
       <c r="C65">
-        <v>-0.00167244828800767</v>
+        <v>-0.0009133115245339705</v>
       </c>
       <c r="D65">
-        <v>0.01171343711927503</v>
+        <v>-0.04082823833075643</v>
       </c>
       <c r="E65">
-        <v>0.01020248191521477</v>
+        <v>-0.005426502751025171</v>
       </c>
       <c r="F65">
-        <v>-0.008875896116005366</v>
+        <v>0.03777435577609817</v>
       </c>
       <c r="G65">
-        <v>0.007159865384039244</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.00265785265065269</v>
+      </c>
+      <c r="H65">
+        <v>0.06011766037210166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03823337108231101</v>
+        <v>-0.03101601917006486</v>
       </c>
       <c r="C66">
-        <v>0.02740138383034393</v>
+        <v>0.008996518840408493</v>
       </c>
       <c r="D66">
-        <v>0.02330617183533223</v>
+        <v>-0.07208288627627875</v>
       </c>
       <c r="E66">
-        <v>0.04312228306152106</v>
+        <v>0.007343583949589337</v>
       </c>
       <c r="F66">
-        <v>-0.03810205098941157</v>
+        <v>0.06442158079951692</v>
       </c>
       <c r="G66">
-        <v>-0.01261270517502624</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04704051068134654</v>
+      </c>
+      <c r="H66">
+        <v>0.05923852021274682</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02331152238788923</v>
+        <v>-0.03759215760861449</v>
       </c>
       <c r="C67">
-        <v>0.004236269647392293</v>
+        <v>0.02238362013927135</v>
       </c>
       <c r="D67">
-        <v>-0.01542304810229509</v>
+        <v>0.007624836994088105</v>
       </c>
       <c r="E67">
-        <v>-0.02663753295614428</v>
+        <v>-0.001846947633183246</v>
       </c>
       <c r="F67">
-        <v>-0.01833149589858914</v>
+        <v>0.01118911300907103</v>
       </c>
       <c r="G67">
-        <v>0.01793963270276542</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01667399002185741</v>
+      </c>
+      <c r="H67">
+        <v>0.03188106669130288</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.0858644031702417</v>
+        <v>-0.1461549751191887</v>
       </c>
       <c r="C68">
-        <v>0.06167839936871873</v>
+        <v>0.03349827148677843</v>
       </c>
       <c r="D68">
-        <v>-0.03561077459172037</v>
+        <v>0.1968924425684888</v>
       </c>
       <c r="E68">
-        <v>-0.168248409586523</v>
+        <v>0.03601044924616256</v>
       </c>
       <c r="F68">
-        <v>-0.07006439989411417</v>
+        <v>-0.1080183987877747</v>
       </c>
       <c r="G68">
-        <v>0.07817795939697801</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01986082453209342</v>
+      </c>
+      <c r="H68">
+        <v>-0.04004898419262855</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07293397997134446</v>
+        <v>-0.05670100907681506</v>
       </c>
       <c r="C69">
-        <v>0.03320126969453165</v>
+        <v>0.03280363701154999</v>
       </c>
       <c r="D69">
-        <v>0.02631176980644747</v>
+        <v>-0.0285311761866534</v>
       </c>
       <c r="E69">
-        <v>0.009343660600166873</v>
+        <v>0.004907792311904945</v>
       </c>
       <c r="F69">
-        <v>-0.01303803678090442</v>
+        <v>0.03118308170753124</v>
       </c>
       <c r="G69">
-        <v>-0.07967678599036432</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.002928134586689524</v>
+      </c>
+      <c r="H69">
+        <v>-0.01296017449371028</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1073321377203907</v>
+        <v>-0.1400696287928806</v>
       </c>
       <c r="C71">
-        <v>0.06736695292622884</v>
+        <v>0.04128193514310356</v>
       </c>
       <c r="D71">
-        <v>-0.01289212258805976</v>
+        <v>0.1832160161441936</v>
       </c>
       <c r="E71">
-        <v>-0.2094262386988504</v>
+        <v>0.03667520800498046</v>
       </c>
       <c r="F71">
-        <v>-0.09136504378844311</v>
+        <v>-0.1130741997048618</v>
       </c>
       <c r="G71">
-        <v>0.05155955784759677</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01905127396971849</v>
+      </c>
+      <c r="H71">
+        <v>-0.02406897016154548</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1070429412980086</v>
+        <v>-0.08587645111546766</v>
       </c>
       <c r="C72">
-        <v>0.09338153182121919</v>
+        <v>0.04983986408789855</v>
       </c>
       <c r="D72">
-        <v>0.01911231539309657</v>
+        <v>-0.05940494672240688</v>
       </c>
       <c r="E72">
-        <v>0.07893362760000645</v>
+        <v>0.009293595519784878</v>
       </c>
       <c r="F72">
-        <v>-0.08939646049413338</v>
+        <v>0.1093620380113238</v>
       </c>
       <c r="G72">
-        <v>0.106837323389444</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.09771379903670774</v>
+      </c>
+      <c r="H72">
+        <v>0.1501675938764725</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2493451288297345</v>
+        <v>-0.2379840039350129</v>
       </c>
       <c r="C73">
-        <v>0.08304509283841773</v>
+        <v>0.07029258336951386</v>
       </c>
       <c r="D73">
-        <v>0.06616746613722649</v>
+        <v>-0.05222063208254798</v>
       </c>
       <c r="E73">
-        <v>0.005236384255718245</v>
+        <v>0.08566433935903751</v>
       </c>
       <c r="F73">
-        <v>-0.2193523133905013</v>
+        <v>0.07516356064096606</v>
       </c>
       <c r="G73">
-        <v>0.4535091121480995</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1841166370592064</v>
+      </c>
+      <c r="H73">
+        <v>0.5138288535451883</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1235274554078833</v>
+        <v>-0.1133359612321649</v>
       </c>
       <c r="C74">
-        <v>0.0405300947353168</v>
+        <v>0.06016809574855818</v>
       </c>
       <c r="D74">
-        <v>0.03552391815952587</v>
+        <v>-0.07864880717865057</v>
       </c>
       <c r="E74">
-        <v>0.02728252245334897</v>
+        <v>0.007779138539751801</v>
       </c>
       <c r="F74">
-        <v>0.09973894269631416</v>
+        <v>0.0770000486313465</v>
       </c>
       <c r="G74">
-        <v>0.02285140726638064</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07716509904505636</v>
+      </c>
+      <c r="H74">
+        <v>-0.009643719110003807</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2160291901940083</v>
+        <v>-0.2239401283379443</v>
       </c>
       <c r="C75">
-        <v>0.1188296893863825</v>
+        <v>0.1211467855238186</v>
       </c>
       <c r="D75">
-        <v>0.06754191685291916</v>
+        <v>-0.1198153926971621</v>
       </c>
       <c r="E75">
-        <v>0.0834135591507964</v>
+        <v>0.02701728325191499</v>
       </c>
       <c r="F75">
-        <v>0.1785629896952458</v>
+        <v>0.1548171954389428</v>
       </c>
       <c r="G75">
-        <v>-0.04184377724057504</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1600291458400382</v>
+      </c>
+      <c r="H75">
+        <v>-0.0913182571715167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2680335097000253</v>
+        <v>-0.2064282370071336</v>
       </c>
       <c r="C76">
-        <v>0.1229540833310655</v>
+        <v>0.1156901970438779</v>
       </c>
       <c r="D76">
-        <v>0.01008018090711603</v>
+        <v>-0.1086715248099564</v>
       </c>
       <c r="E76">
-        <v>0.04648434508758267</v>
+        <v>-0.01376467511417133</v>
       </c>
       <c r="F76">
-        <v>0.2065145282475225</v>
+        <v>0.1476376197687302</v>
       </c>
       <c r="G76">
-        <v>-0.05425665896366157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1732223704996125</v>
+      </c>
+      <c r="H76">
+        <v>-0.09282172787268178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1399213157009216</v>
+        <v>-0.0739011308674369</v>
       </c>
       <c r="C77">
-        <v>-0.02147010202977733</v>
+        <v>0.0145957952689407</v>
       </c>
       <c r="D77">
-        <v>0.06623011481038647</v>
+        <v>-0.07291806606996153</v>
       </c>
       <c r="E77">
-        <v>0.1216277350645663</v>
+        <v>0.01357420164944703</v>
       </c>
       <c r="F77">
-        <v>-0.2283514039380543</v>
+        <v>0.003231608972819912</v>
       </c>
       <c r="G77">
-        <v>-0.1236728427231164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1329539353730494</v>
+      </c>
+      <c r="H77">
+        <v>-0.06635934170318517</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05266616524437012</v>
+        <v>-0.0348860204108784</v>
       </c>
       <c r="C78">
-        <v>0.0141357233658126</v>
+        <v>0.01222595651394863</v>
       </c>
       <c r="D78">
-        <v>0.0334525931100285</v>
+        <v>-0.05827052940099166</v>
       </c>
       <c r="E78">
-        <v>0.111603906800325</v>
+        <v>-0.003794177924958315</v>
       </c>
       <c r="F78">
-        <v>-0.02253309005969066</v>
+        <v>0.05339716555198376</v>
       </c>
       <c r="G78">
-        <v>-0.05807254470580261</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05192621941917036</v>
+      </c>
+      <c r="H78">
+        <v>0.02776432679491229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2144249653187397</v>
+        <v>-0.1770760624188483</v>
       </c>
       <c r="C80">
-        <v>-0.1395085387185111</v>
+        <v>0.06921869704786107</v>
       </c>
       <c r="D80">
-        <v>-0.9304956235795449</v>
+        <v>-0.01613375027956293</v>
       </c>
       <c r="E80">
-        <v>0.2182824265750163</v>
+        <v>-0.9604532474262375</v>
       </c>
       <c r="F80">
-        <v>-0.04126450600782175</v>
+        <v>-0.1210162501500179</v>
       </c>
       <c r="G80">
-        <v>0.03328325335323867</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.09700902200686398</v>
+      </c>
+      <c r="H80">
+        <v>0.008927372369410224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1583600542968257</v>
+        <v>-0.1496798667809382</v>
       </c>
       <c r="C81">
-        <v>0.09838565697478947</v>
+        <v>0.08063297105549651</v>
       </c>
       <c r="D81">
-        <v>0.01912960091154659</v>
+        <v>-0.07118251293522258</v>
       </c>
       <c r="E81">
-        <v>0.04553458850105103</v>
+        <v>0.002521138134581133</v>
       </c>
       <c r="F81">
-        <v>0.1756574843436685</v>
+        <v>0.1033240435743524</v>
       </c>
       <c r="G81">
-        <v>-0.01067889956937882</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1031870254515788</v>
+      </c>
+      <c r="H81">
+        <v>-0.06754227752163094</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05312219855811016</v>
+        <v>-0.0380318793328122</v>
       </c>
       <c r="C83">
-        <v>-0.006763277967127819</v>
+        <v>0.01055067412050477</v>
       </c>
       <c r="D83">
-        <v>0.03878307408727784</v>
+        <v>-0.01984164798143466</v>
       </c>
       <c r="E83">
-        <v>0.03948086229338445</v>
+        <v>0.01263787465416903</v>
       </c>
       <c r="F83">
-        <v>-0.05812212278279291</v>
+        <v>0.01351490112108363</v>
       </c>
       <c r="G83">
-        <v>-0.05163361479582958</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05868831689326241</v>
+      </c>
+      <c r="H83">
+        <v>0.01387802966003933</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2295638300782342</v>
+        <v>-0.2092906256619072</v>
       </c>
       <c r="C85">
-        <v>0.1048934806753147</v>
+        <v>0.1009204285282934</v>
       </c>
       <c r="D85">
-        <v>0.04079850963257498</v>
+        <v>-0.1271681070851411</v>
       </c>
       <c r="E85">
-        <v>0.04719699777090246</v>
+        <v>0.01697300873624655</v>
       </c>
       <c r="F85">
-        <v>0.2014208675032242</v>
+        <v>0.1380207601820817</v>
       </c>
       <c r="G85">
-        <v>-0.07304100451589753</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1694033767760365</v>
+      </c>
+      <c r="H85">
+        <v>-0.06257476948997132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.003160404603169696</v>
+        <v>-0.0136499440369887</v>
       </c>
       <c r="C86">
-        <v>-0.008630692902480296</v>
+        <v>-0.001122272624805714</v>
       </c>
       <c r="D86">
-        <v>0.001290939429329725</v>
+        <v>-0.004233477452452211</v>
       </c>
       <c r="E86">
-        <v>0.05203724004611168</v>
+        <v>0.008834938182016317</v>
       </c>
       <c r="F86">
-        <v>-0.07530724436811162</v>
+        <v>-0.002073751218458744</v>
       </c>
       <c r="G86">
-        <v>-0.02690289113535746</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08716641999443236</v>
+      </c>
+      <c r="H86">
+        <v>0.03751792969538419</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03161072012869014</v>
+        <v>-0.02764832932962914</v>
       </c>
       <c r="C87">
-        <v>0.008266179999104365</v>
+        <v>0.004943953975495325</v>
       </c>
       <c r="D87">
-        <v>0.01455171598030893</v>
+        <v>-0.02615314472243734</v>
       </c>
       <c r="E87">
-        <v>0.03494243133929349</v>
+        <v>0.001100356287280439</v>
       </c>
       <c r="F87">
-        <v>-0.07558926177779232</v>
+        <v>0.02645697278582713</v>
       </c>
       <c r="G87">
-        <v>-0.003229111157248964</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.09381662407026473</v>
+      </c>
+      <c r="H87">
+        <v>0.02714091008675438</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01117538301045706</v>
+        <v>-0.03887792499529068</v>
       </c>
       <c r="C88">
-        <v>0.01745200477851844</v>
+        <v>-0.006715498119180006</v>
       </c>
       <c r="D88">
-        <v>-0.02271857453198338</v>
+        <v>0.005076640161907574</v>
       </c>
       <c r="E88">
-        <v>-0.003766995812562369</v>
+        <v>-0.007318339025800603</v>
       </c>
       <c r="F88">
-        <v>-0.03568638600912537</v>
+        <v>0.01322634437355399</v>
       </c>
       <c r="G88">
-        <v>-0.06712376517090987</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.001763480350706387</v>
+      </c>
+      <c r="H88">
+        <v>0.006207029995748779</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1294105231574512</v>
+        <v>-0.2242268199504563</v>
       </c>
       <c r="C89">
-        <v>0.08646074924770482</v>
+        <v>0.06189872127530695</v>
       </c>
       <c r="D89">
-        <v>-0.01761891304288862</v>
+        <v>0.3155974193458582</v>
       </c>
       <c r="E89">
-        <v>-0.2882976857759814</v>
+        <v>0.07868008299618492</v>
       </c>
       <c r="F89">
-        <v>-0.1561480021985524</v>
+        <v>-0.163102434371929</v>
       </c>
       <c r="G89">
-        <v>0.01935802269633017</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.00160214586502098</v>
+      </c>
+      <c r="H89">
+        <v>-0.0312079782985081</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1156720417740213</v>
+        <v>-0.1783810563985763</v>
       </c>
       <c r="C90">
-        <v>0.08853125324221067</v>
+        <v>0.05026408807257366</v>
       </c>
       <c r="D90">
-        <v>-0.06437157047966377</v>
+        <v>0.2788482089076241</v>
       </c>
       <c r="E90">
-        <v>-0.2827923462214273</v>
+        <v>0.05151969081189995</v>
       </c>
       <c r="F90">
-        <v>-0.11166355868876</v>
+        <v>-0.1564419248690545</v>
       </c>
       <c r="G90">
-        <v>0.04267052848771512</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03180046695912233</v>
+      </c>
+      <c r="H90">
+        <v>-0.04613013687981425</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2890910385241156</v>
+        <v>-0.2280140595566841</v>
       </c>
       <c r="C91">
-        <v>0.09674995223476525</v>
+        <v>0.1213603681818101</v>
       </c>
       <c r="D91">
-        <v>0.0576079796584962</v>
+        <v>-0.1224032149221252</v>
       </c>
       <c r="E91">
-        <v>0.03586441164841764</v>
+        <v>0.01796966684007616</v>
       </c>
       <c r="F91">
-        <v>0.2625868761955911</v>
+        <v>0.1411055718492383</v>
       </c>
       <c r="G91">
-        <v>-0.0214013495187921</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2090684888822723</v>
+      </c>
+      <c r="H91">
+        <v>-0.1230322433168667</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1935423564406482</v>
+        <v>-0.2306394768056553</v>
       </c>
       <c r="C92">
-        <v>0.08622596668270842</v>
+        <v>0.1179361058947156</v>
       </c>
       <c r="D92">
-        <v>-0.09647622491900937</v>
+        <v>0.2210293721324012</v>
       </c>
       <c r="E92">
-        <v>-0.4682383819505112</v>
+        <v>0.03488910551313135</v>
       </c>
       <c r="F92">
-        <v>-0.04766962963871998</v>
+        <v>-0.127138970657971</v>
       </c>
       <c r="G92">
-        <v>-0.5284183384487345</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04461336978655957</v>
+      </c>
+      <c r="H92">
+        <v>-0.1411336148009453</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1287776002773715</v>
+        <v>-0.2041749674599058</v>
       </c>
       <c r="C93">
-        <v>0.06752126601488799</v>
+        <v>0.06412403277683705</v>
       </c>
       <c r="D93">
-        <v>-0.07614200476800966</v>
+        <v>0.2939196876596392</v>
       </c>
       <c r="E93">
-        <v>-0.3879541483577042</v>
+        <v>0.06749441342321276</v>
       </c>
       <c r="F93">
-        <v>-0.08849691506338886</v>
+        <v>-0.1938459876902066</v>
       </c>
       <c r="G93">
-        <v>0.1083914221772966</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04173503926071363</v>
+      </c>
+      <c r="H93">
+        <v>0.01502749954591776</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2644182151327753</v>
+        <v>-0.2498396025724317</v>
       </c>
       <c r="C94">
-        <v>0.1274986889373741</v>
+        <v>0.1125527281733223</v>
       </c>
       <c r="D94">
-        <v>0.02570453501141327</v>
+        <v>-0.1066327325729789</v>
       </c>
       <c r="E94">
-        <v>0.02902485582423224</v>
+        <v>0.03651286030188045</v>
       </c>
       <c r="F94">
-        <v>0.3089999143385783</v>
+        <v>0.1597575149658668</v>
       </c>
       <c r="G94">
-        <v>0.03605132000795816</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2165180693274442</v>
+      </c>
+      <c r="H94">
+        <v>-0.1378719281939157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07982074776890413</v>
+        <v>-0.06575874892221473</v>
       </c>
       <c r="C95">
-        <v>0.01608165768977408</v>
+        <v>0.03829863539824011</v>
       </c>
       <c r="D95">
-        <v>0.06301791811190896</v>
+        <v>-0.07773987520501104</v>
       </c>
       <c r="E95">
-        <v>0.07303133362287527</v>
+        <v>0.07223658015388314</v>
       </c>
       <c r="F95">
-        <v>-0.03043954168555606</v>
+        <v>0.03237430027928156</v>
       </c>
       <c r="G95">
-        <v>-0.2449810183720805</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06172274991818576</v>
+      </c>
+      <c r="H95">
+        <v>-0.001591842559950286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1837068270126219</v>
+        <v>-0.1748815911266796</v>
       </c>
       <c r="C98">
-        <v>0.03974303302090848</v>
+        <v>0.08423318401348018</v>
       </c>
       <c r="D98">
-        <v>0.05177054386908286</v>
+        <v>-0.03827051937713264</v>
       </c>
       <c r="E98">
-        <v>-0.03280147058681661</v>
+        <v>0.05693725573174466</v>
       </c>
       <c r="F98">
-        <v>-0.09094160549938</v>
+        <v>0.03396620933662196</v>
       </c>
       <c r="G98">
-        <v>0.3032058179851871</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1529244770120398</v>
+      </c>
+      <c r="H98">
+        <v>0.3718281777683156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-1.002564475898428e-05</v>
+        <v>-0.01266704645861038</v>
       </c>
       <c r="C101">
-        <v>0.03022324753241067</v>
+        <v>0.0007884663498203668</v>
       </c>
       <c r="D101">
-        <v>0.006799943142975554</v>
+        <v>-0.002710849010491227</v>
       </c>
       <c r="E101">
-        <v>0.1349938219599547</v>
+        <v>-0.006514793423406535</v>
       </c>
       <c r="F101">
-        <v>-0.1297432179371398</v>
+        <v>0.03634275046301179</v>
       </c>
       <c r="G101">
-        <v>-0.1202490590238142</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09871791116818877</v>
+      </c>
+      <c r="H101">
+        <v>-0.07358605817723263</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09556401547160709</v>
+        <v>-0.1045444690794257</v>
       </c>
       <c r="C102">
-        <v>0.03221027892121699</v>
+        <v>0.04266192608521442</v>
       </c>
       <c r="D102">
-        <v>0.0106676946299721</v>
+        <v>-0.06387548798599195</v>
       </c>
       <c r="E102">
-        <v>0.0567703520518725</v>
+        <v>0.00133496176553794</v>
       </c>
       <c r="F102">
-        <v>0.1391735855983751</v>
+        <v>0.07157071982177304</v>
       </c>
       <c r="G102">
-        <v>-0.06591996812701764</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.09376599203423031</v>
+      </c>
+      <c r="H102">
+        <v>-0.05455783366888945</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02581553673549916</v>
+        <v>-0.02102656949156079</v>
       </c>
       <c r="C103">
-        <v>0.01204359220297186</v>
+        <v>0.009767841496226847</v>
       </c>
       <c r="D103">
-        <v>0.01271728064730895</v>
+        <v>-0.01293923661655989</v>
       </c>
       <c r="E103">
-        <v>0.004331846994891655</v>
+        <v>-0.005173565050649051</v>
       </c>
       <c r="F103">
-        <v>0.01655417892940174</v>
+        <v>0.0182824273307062</v>
       </c>
       <c r="G103">
-        <v>-0.01980782516711263</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.006397142181800612</v>
+      </c>
+      <c r="H103">
+        <v>-0.01031060912554452</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.3520254241221392</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9140742333377448</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.06248970019575141</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02519833036345503</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1572352629205859</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.04029973508333737</v>
+      </c>
+      <c r="H104">
+        <v>-0.03024850619799973</v>
       </c>
     </row>
   </sheetData>
